--- a/ABHFL.xlsx
+++ b/ABHFL.xlsx
@@ -852,7 +852,7 @@
       <c r="I2" s="62" t="n"/>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>BT</t>
+          <t>HL</t>
         </is>
       </c>
       <c r="K2" s="62" t="n"/>
@@ -881,7 +881,7 @@
       <c r="I3" s="62" t="n"/>
       <c r="J3" s="18" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="K3" s="62" t="n"/>
@@ -910,7 +910,7 @@
       <c r="I4" s="62" t="n"/>
       <c r="J4" s="18" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="K4" s="62" t="n"/>
@@ -945,7 +945,7 @@
       <c r="D6" s="62" t="n"/>
       <c r="E6" s="7" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>John Oliver</t>
         </is>
       </c>
       <c r="F6" s="61" t="n"/>
@@ -970,7 +970,7 @@
       <c r="D7" s="62" t="n"/>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>Mrs. Jane Austin</t>
+          <t>Mrs. Orca Reddy</t>
         </is>
       </c>
       <c r="F7" s="61" t="n"/>
@@ -1006,7 +1006,7 @@
       <c r="I8" s="62" t="n"/>
       <c r="J8" s="7" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="K8" s="62" t="n"/>
@@ -1114,7 +1114,7 @@
       <c r="H13" s="62" t="n"/>
       <c r="I13" s="7" t="inlineStr">
         <is>
-          <t>78*15*</t>
+          <t>78*45*</t>
         </is>
       </c>
       <c r="J13" s="61" t="n"/>
@@ -1356,7 +1356,7 @@
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="7" t="inlineStr">
         <is>
-          <t>Markham</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H24" s="61" t="n"/>
